--- a/Testing/Detailed Test Cases -LAZE v0.2.xlsx
+++ b/Testing/Detailed Test Cases -LAZE v0.2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshijoshi/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8253CF1F-AB09-6C46-8B9B-22A9615A3795}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Testing" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="123">
   <si>
     <t>Test Case id</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Laze Functional Testing</t>
@@ -254,9 +257,6 @@
     <t>Tested By</t>
   </si>
   <si>
-    <t>Tested on Version</t>
-  </si>
-  <si>
     <t>Test Case Name and Description</t>
   </si>
   <si>
@@ -378,13 +378,28 @@
   </si>
   <si>
     <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Mansi Bhatia</t>
+  </si>
+  <si>
+    <t>Binoli Joshi</t>
+  </si>
+  <si>
+    <t>Charmi Desai</t>
+  </si>
+  <si>
+    <t>Sakshi Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +443,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial-BoldMT"/>
     </font>
   </fonts>
   <fills count="4">
@@ -477,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -497,12 +517,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -549,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,9 +614,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,6 +666,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -790,26 +859,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:A89"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="83.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="83.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -817,32 +886,30 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -854,22 +921,30 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="12">
+        <v>43449</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="26.25">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="1">
         <v>1.2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="12">
+        <v>43449</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
@@ -878,10 +953,14 @@
         <v>1.3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="12">
+        <v>43449</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
@@ -890,10 +969,14 @@
         <v>1.4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="12">
+        <v>43449</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
@@ -902,10 +985,14 @@
         <v>1.5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43449</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
@@ -914,10 +1001,14 @@
         <v>1.6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43449</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
@@ -926,10 +1017,14 @@
         <v>1.7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="12">
+        <v>43449</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
@@ -938,10 +1033,14 @@
         <v>1.8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="12">
+        <v>43449</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
@@ -950,10 +1049,14 @@
         <v>1.9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="12">
+        <v>43449</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
@@ -962,10 +1065,14 @@
         <v>1.101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="12">
+        <v>43449</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
@@ -974,10 +1081,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="12">
+        <v>43449</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
@@ -986,47 +1097,63 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="12">
+        <v>43449</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="12">
+        <v>43449</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="26.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>1.1399999999999999</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="12">
+        <v>43449</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="39">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="1">
         <v>1.1499999999999999</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="12">
+        <v>43449</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
@@ -1035,10 +1162,14 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="12">
+        <v>43449</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
@@ -1047,10 +1178,14 @@
         <v>1.17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="12">
+        <v>43449</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
     </row>
@@ -1059,10 +1194,14 @@
         <v>1.18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="12">
+        <v>43449</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
@@ -1071,10 +1210,14 @@
         <v>1.19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="12">
+        <v>43449</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
@@ -1083,10 +1226,14 @@
         <v>1.2010000000000001</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="12">
+        <v>43449</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
     </row>
@@ -1095,22 +1242,30 @@
         <v>1.21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="12">
+        <v>43449</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="26.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>1.22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="12">
+        <v>43449</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
@@ -1119,10 +1274,14 @@
         <v>1.23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="12">
+        <v>43449</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
@@ -1131,10 +1290,14 @@
         <v>1.24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="12">
+        <v>43449</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
     </row>
@@ -1143,10 +1306,14 @@
         <v>1.26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="12">
+        <v>43449</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
@@ -1155,10 +1322,14 @@
         <v>1.29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="12">
+        <v>43449</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
@@ -1167,10 +1338,14 @@
         <v>1.3009999999999999</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="12">
+        <v>43449</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
@@ -1179,22 +1354,30 @@
         <v>1.31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="12">
+        <v>43449</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="26.25">
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="1">
         <v>1.32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="12">
+        <v>43449</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
@@ -1203,10 +1386,14 @@
         <v>1.33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="12">
+        <v>43449</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
     </row>
@@ -1215,34 +1402,46 @@
         <v>1.34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="12">
+        <v>43449</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>1.35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="12">
+        <v>43449</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="26.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>1.36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="12">
+        <v>43449</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
     </row>
@@ -1251,10 +1450,14 @@
         <v>1.37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="12">
+        <v>43449</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
     </row>
@@ -1263,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1275,10 +1478,14 @@
         <v>2.1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="12">
+        <v>43449</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
@@ -1287,10 +1494,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="12">
+        <v>43449</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
     </row>
@@ -1299,10 +1510,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="12">
+        <v>43449</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="1"/>
     </row>
@@ -1311,10 +1526,14 @@
         <v>2.4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="12">
+        <v>43449</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
@@ -1323,46 +1542,62 @@
         <v>2.5</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="12">
+        <v>43449</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="26.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="6">
         <v>2.6</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="12">
+        <v>43449</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="26.25">
+    <row r="45" spans="1:6" ht="30">
       <c r="A45" s="6">
         <v>2.7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="12">
+        <v>43449</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="26.25">
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="6">
         <v>2.8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="12">
+        <v>43449</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="1"/>
     </row>
@@ -1371,22 +1606,30 @@
         <v>2.9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="12">
+        <v>43449</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="26.25">
+    <row r="48" spans="1:6" ht="30">
       <c r="A48" s="6">
         <v>2.101</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="12">
+        <v>43449</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
     </row>
@@ -1395,10 +1638,14 @@
         <v>2.11</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="12">
+        <v>43449</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
@@ -1407,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1419,10 +1666,14 @@
         <v>3.1</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="12">
+        <v>43449</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="1"/>
     </row>
@@ -1431,22 +1682,30 @@
         <v>3.2</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="12">
+        <v>43449</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="26.25">
+    <row r="53" spans="1:6" ht="30">
       <c r="A53" s="7">
         <v>3.3</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="12">
+        <v>43449</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="1"/>
     </row>
@@ -1455,10 +1714,14 @@
         <v>3.4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="12">
+        <v>43449</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="1"/>
     </row>
@@ -1467,22 +1730,30 @@
         <v>3.5</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="12">
+        <v>43449</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="26.25">
+    <row r="56" spans="1:6" ht="30">
       <c r="A56" s="7">
         <v>3.6</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="12">
+        <v>43449</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="1"/>
     </row>
@@ -1491,22 +1762,30 @@
         <v>3.7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="12">
+        <v>43449</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="26.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="7">
         <v>3.8</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="12">
+        <v>43449</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="1"/>
     </row>
@@ -1515,10 +1794,14 @@
         <v>3.9</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="12">
+        <v>43449</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="1"/>
     </row>
@@ -1527,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -1539,10 +1822,14 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="12">
+        <v>43449</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="1"/>
     </row>
@@ -1551,10 +1838,14 @@
         <v>4.2</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="12">
+        <v>43449</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="1"/>
     </row>
@@ -1563,10 +1854,14 @@
         <v>4.3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="12">
+        <v>43449</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="1"/>
     </row>
@@ -1575,10 +1870,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="12">
+        <v>43449</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="1"/>
     </row>
@@ -1587,10 +1886,14 @@
         <v>4.5</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="12">
+        <v>43449</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="1"/>
     </row>
@@ -1599,10 +1902,14 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="12">
+        <v>43449</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="1"/>
     </row>
@@ -1611,22 +1918,30 @@
         <v>4.7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="12">
+        <v>43449</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="26.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>4.8</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="12">
+        <v>43449</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="1"/>
     </row>
@@ -1635,10 +1950,14 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="12">
+        <v>43449</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="1"/>
     </row>
@@ -1647,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -1659,22 +1978,30 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="12">
+        <v>43449</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="26.25">
+    <row r="72" spans="1:6" ht="30">
       <c r="A72" s="7">
         <v>5.2</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="12">
+        <v>43449</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="1"/>
     </row>
@@ -1683,10 +2010,14 @@
         <v>5.3</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="12">
+        <v>43449</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="1"/>
     </row>
@@ -1695,10 +2026,14 @@
         <v>5.4</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="12">
+        <v>43449</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="1"/>
     </row>
@@ -1707,10 +2042,14 @@
         <v>5.5</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="12">
+        <v>43449</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="1"/>
     </row>
@@ -1719,10 +2058,14 @@
         <v>5.6</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="12">
+        <v>43449</v>
+      </c>
       <c r="E76" s="3"/>
       <c r="F76" s="1"/>
     </row>
@@ -1731,10 +2074,12 @@
         <v>6</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="1"/>
       <c r="E77" s="8"/>
       <c r="F77" s="1"/>
     </row>
@@ -1743,10 +2088,14 @@
         <v>6.1</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="12">
+        <v>43449</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
@@ -1755,10 +2104,14 @@
         <v>6.2</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="12">
+        <v>43449</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
@@ -1767,10 +2120,14 @@
         <v>6.3</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="12">
+        <v>43449</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
@@ -1779,9 +2136,8 @@
         <v>7</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="8"/>
+        <v>79</v>
+      </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="1"/>
@@ -1791,10 +2147,14 @@
         <v>7.1</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="12">
+        <v>43449</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
@@ -1803,22 +2163,30 @@
         <v>7.2</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="12">
+        <v>43449</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="26.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="7">
         <v>7.3</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="12">
+        <v>43449</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
@@ -1827,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -1839,10 +2207,14 @@
         <v>8.1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="12">
+        <v>43449</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
@@ -1851,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -1863,10 +2235,14 @@
         <v>9.1</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="12">
+        <v>43450</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
@@ -1875,10 +2251,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="12">
+        <v>43450</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
@@ -1887,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -1899,10 +2279,14 @@
         <v>10.1</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="12">
+        <v>43450</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
@@ -1911,22 +2295,30 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="12">
+        <v>43450</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="26.25">
+    <row r="93" spans="1:6" ht="30">
       <c r="A93" s="7">
         <v>10.3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="12">
+        <v>43450</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
@@ -1935,10 +2327,14 @@
         <v>10.4</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="12">
+        <v>43450</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
@@ -1947,10 +2343,14 @@
         <v>10.5</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="12">
+        <v>43450</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
@@ -1959,10 +2359,14 @@
         <v>10.6</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="12">
+        <v>43450</v>
+      </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
@@ -1971,10 +2375,14 @@
         <v>10.7</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="12">
+        <v>43450</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
@@ -1983,10 +2391,14 @@
         <v>10.8</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="12">
+        <v>43450</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
@@ -1995,10 +2407,14 @@
         <v>10.9</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="12">
+        <v>43450</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
@@ -2007,10 +2423,14 @@
         <v>10.101000000000001</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="12">
+        <v>43450</v>
+      </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
@@ -2059,25 +2479,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2085,40 +2505,48 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="13">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2126,7 +2554,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2134,7 +2568,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43449</v>
       </c>
     </row>
   </sheetData>
@@ -2146,26 +2586,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2173,32 +2613,34 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="32">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2206,7 +2648,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2214,7 +2662,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2222,7 +2676,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2230,7 +2690,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2238,7 +2704,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2246,7 +2718,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="13">
+        <v>43450</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2254,7 +2732,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="13">
+        <v>43450</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2262,7 +2746,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="13">
+        <v>43450</v>
       </c>
     </row>
   </sheetData>
